--- a/materiais/modelos_excel/lista_evidencia.xlsx
+++ b/materiais/modelos_excel/lista_evidencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dvmsys\materiais\modelos_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\XAMPP\htdocs\erp_sistema\materiais\modelos_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -216,26 +216,8 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -287,6 +269,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,72 +576,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="77.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="25"/>
-    <col min="4" max="4" width="13.140625" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="18.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="77.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="13.140625" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
